--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91559.78378481472</v>
+        <v>6506220.642053366</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91559.78378481472</v>
+        <v>6506220.642053366</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608904198.829784</v>
+        <v>57478573.73134717</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16198.55563054029</v>
+        <v>1247012.407578842</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31996.027307099</v>
+        <v>2426073.787780473</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47775.66251793886</v>
+        <v>3605135.167982105</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64634.21976906046</v>
+        <v>4708130.931237157</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80766.61850490494</v>
+        <v>5884952.739703919</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96899.01724074197</v>
+        <v>7061774.54817148</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113031.415976579</v>
+        <v>8238596.356639018</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129163.8147124139</v>
+        <v>9415418.165106811</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>146022.3719635352</v>
+        <v>10518413.92836187</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162154.7706993656</v>
+        <v>11695235.73683015</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178271.6051290703</v>
+        <v>12873115.36529845</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>194388.439558775</v>
+        <v>14050994.99376674</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>210505.2739884797</v>
+        <v>15228874.62223506</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>227363.8312396012</v>
+        <v>16331870.38549013</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246286.2644587234</v>
+        <v>17170526.74295316</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>133</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
